--- a/CodeSystem-combined-term-ema-cs.xlsx
+++ b/CodeSystem-combined-term-ema-cs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="197">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-07T21:05:10+00:00</t>
+    <t>2022-11-07T21:23:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -87,6 +87,9 @@
     <t>Case Sensitive</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>Value Set (all codes)</t>
   </si>
   <si>
@@ -94,9 +97,6 @@
   </si>
   <si>
     <t>Compositional</t>
-  </si>
-  <si>
-    <t>false</t>
   </si>
   <si>
     <t>Version Needed?</t>
@@ -849,26 +849,28 @@
       <c r="A14" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" t="s" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18">

--- a/CodeSystem-combined-term-ema-cs.xlsx
+++ b/CodeSystem-combined-term-ema-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-07T21:23:46+00:00</t>
+    <t>2022-11-07T21:31:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-combined-term-ema-cs.xlsx
+++ b/CodeSystem-combined-term-ema-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-07T21:31:45+00:00</t>
+    <t>2022-11-08T20:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-combined-term-ema-cs.xlsx
+++ b/CodeSystem-combined-term-ema-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T12:45:51+00:00</t>
+    <t>2022-11-11T12:48:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-combined-term-ema-cs.xlsx
+++ b/CodeSystem-combined-term-ema-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T12:48:43+00:00</t>
+    <t>2022-11-11T13:10:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-combined-term-ema-cs.xlsx
+++ b/CodeSystem-combined-term-ema-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T13:10:08+00:00</t>
+    <t>2022-11-11T15:50:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-combined-term-ema-cs.xlsx
+++ b/CodeSystem-combined-term-ema-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T20:48:35+00:00</t>
+    <t>2022-11-12T19:50:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-combined-term-ema-cs.xlsx
+++ b/CodeSystem-combined-term-ema-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-12T19:50:48+00:00</t>
+    <t>2022-11-12T20:00:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-combined-term-ema-cs.xlsx
+++ b/CodeSystem-combined-term-ema-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-12T20:00:33+00:00</t>
+    <t>2022-11-14T19:25:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-combined-term-ema-cs.xlsx
+++ b/CodeSystem-combined-term-ema-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-14T19:25:53+00:00</t>
+    <t>2022-11-16T21:11:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-combined-term-ema-cs.xlsx
+++ b/CodeSystem-combined-term-ema-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T21:11:51+00:00</t>
+    <t>2022-11-16T21:23:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-combined-term-ema-cs.xlsx
+++ b/CodeSystem-combined-term-ema-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-16T21:23:11+00:00</t>
+    <t>2022-11-17T06:36:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-combined-term-ema-cs.xlsx
+++ b/CodeSystem-combined-term-ema-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T06:36:33+00:00</t>
+    <t>2022-11-17T17:44:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-combined-term-ema-cs.xlsx
+++ b/CodeSystem-combined-term-ema-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-17T17:44:56+00:00</t>
+    <t>2022-11-18T19:44:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-combined-term-ema-cs.xlsx
+++ b/CodeSystem-combined-term-ema-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:44:59+00:00</t>
+    <t>2022-11-18T19:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-combined-term-ema-cs.xlsx
+++ b/CodeSystem-combined-term-ema-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:50:12+00:00</t>
+    <t>2022-11-18T19:51:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-combined-term-ema-cs.xlsx
+++ b/CodeSystem-combined-term-ema-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:51:53+00:00</t>
+    <t>2022-11-18T19:52:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-combined-term-ema-cs.xlsx
+++ b/CodeSystem-combined-term-ema-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:52:09+00:00</t>
+    <t>2022-11-18T19:57:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-combined-term-ema-cs.xlsx
+++ b/CodeSystem-combined-term-ema-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-18T19:57:45+00:00</t>
+    <t>2022-11-19T06:10:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-combined-term-ema-cs.xlsx
+++ b/CodeSystem-combined-term-ema-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-19T22:26:15+00:00</t>
+    <t>2022-11-19T22:53:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-combined-term-ema-cs.xlsx
+++ b/CodeSystem-combined-term-ema-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-19T22:53:07+00:00</t>
+    <t>2022-11-20T07:00:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-combined-term-ema-cs.xlsx
+++ b/CodeSystem-combined-term-ema-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T07:00:59+00:00</t>
+    <t>2022-11-20T07:03:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-combined-term-ema-cs.xlsx
+++ b/CodeSystem-combined-term-ema-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T07:03:41+00:00</t>
+    <t>2022-11-20T09:28:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-combined-term-ema-cs.xlsx
+++ b/CodeSystem-combined-term-ema-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T17:12:02+00:00</t>
+    <t>2022-11-20T17:48:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-combined-term-ema-cs.xlsx
+++ b/CodeSystem-combined-term-ema-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T17:48:06+00:00</t>
+    <t>2022-11-20T20:12:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-combined-term-ema-cs.xlsx
+++ b/CodeSystem-combined-term-ema-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T20:12:04+00:00</t>
+    <t>2022-11-20T20:23:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-combined-term-ema-cs.xlsx
+++ b/CodeSystem-combined-term-ema-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-20T20:23:35+00:00</t>
+    <t>2022-11-21T10:47:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-combined-term-ema-cs.xlsx
+++ b/CodeSystem-combined-term-ema-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-21T10:47:26+00:00</t>
+    <t>2022-11-22T13:07:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-combined-term-ema-cs.xlsx
+++ b/CodeSystem-combined-term-ema-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T20:42:27+00:00</t>
+    <t>2022-11-24T22:13:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
